--- a/temp.xlsx
+++ b/temp.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,433 +436,55 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="100" customWidth="1" min="3" max="3"/>
+    <col width="100" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Название компании</t>
+          <t>Ссылка на товар</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Название продукта</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ссылка на товар</t>
+          <t>Дата последней проверки</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Интернет-магазин ПОСТУЛАТ</t>
+          <t>https://www.olx.kz/d/obyavlenie/detskaya-shubka-disney-princess-dlya-devochki-rozovaya-3-goda-98-sm-IDqif9m.html</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Противогаз ГП-7ВМБ</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p80070376-protivogaz-7vmb.html</t>
+          <t>15.02.2026</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>ТОО Uniform Спецодежда</t>
+          <t>https://www.olx.kz/d/obyavlenie/natsionalnoe-detskoe-plate-IDqBSOc.html</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Противогаз ГП-7ВМБ</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p19998379-protivogaz-7vmb.html</t>
+          <t>15.02.2026</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>ТОО "Профессионал"</t>
+          <t>https://www.olx.kz/d/obyavlenie/veschi-zara-na-vesnu-razmer-140-sm-IDqBIh4.html</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Противогаз фильтрующий «БРИЗ®-3306» марки A1B1E1K1SXHgP3 R D с маской (лицевой частью) «Бриз-4304 (МГП-ВМ)» ка</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p115296644-protivogaz-filtruyuschij-briz.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>ТОО "RaDa Fire-Kazakhstan"</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз Бриз-3306 A1B1E1K1SXHgP3 R D фильтрующий с маской Бриз-4303 (МГП)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p116064300-protivogaz-briz-3306.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>ТОО Uniform Спецодежда</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>ПРОТИВОГАЗ ФИЛЬТРУЮЩИЙ «БРИЗ®-3306» МАРКИ A1B1E1K1SXHGP3 R D С ЛИЦЕВОЙ ЧАСТЬЮ «БРИЗ-4303 (МГП)» ( ГП-7Б )</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p44687607-protivogaz-filtruyuschij-briz.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>ТОО JB Group</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз гражданский ГП-7Б новый</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p121110954-protivogaz-grazhdanskij-novyj.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>ТОО "Профессионал"</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз ГП-7Б 2022года. Сертификат!</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p100108015-protivogaz-2022goda-sertifikat.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ТОО "Профессионал"</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Гражданский противогаз ГП-7 Б БК Б Новый 2024 года</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p107577611-grazhdanskij-protivogaz-novyj.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Интернет-магазин ПОСТУЛАТ</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз ГП-7Б</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p77479106-protivogaz.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>SAULET ASTANA спецодежда</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз ГП-7Б</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p104215727-protivogaz.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>ТОО "BASHAYEV Group"</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>ПРОТИВОГАЗ ФИЛЬТРУЮЩИЙ «БРИЗ®-3306» МАРКИ A1B1E1K1SXHGP3 R D С ЛИЦЕВОЙ ЧАСТЬЮ «БРИЗ-4303 (МГП)» ( ГП-7Б )</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p117452326-protivogaz-filtruyuschij-briz.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>ТОО "Профессионал"</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз ГП-7Б 2016года. Сертификат!</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p108192471-protivogaz-2016goda-sertifikat.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Магазин "Антипламя"</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз ГП-7ВМБ (2018 г.) с питьевым устройством(без фляги)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p54043411-protivogaz-7vmb-2018.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>ИП СИЗОД</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз ГП7</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p3450204-protivogaz-gp7.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>ТОО «Индастриал Мануфактуринг Компани»</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Гражданский противогаз ГП-7</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p106435284-grazhdanskij-protivogaz.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>МАГАЗИН "ХИЩНИК"</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз ГП-7</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p3319029-protivogaz.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>ИП СИЗОД</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз ГП-7Б</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p261965-protivogaz.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Магазин спецодежды ROBAMAG</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз гражданский ГП-7Б новый</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p83805039-protivogaz-grazhdanskij-novyj.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>"Tulparforma" производственно-торговая компания. Спецодежда, Спецобувь, СИЗ в Алмате</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз гражданский ГП-7Б</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p42364175-protivogaz-grazhdanskij.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>RB-forma.kz</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз гражданский ГП-7Б новый</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p109462399-protivogaz-grazhdanskij-novyj.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>ТОО "Авангард Спецодежда Казахстан"</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз ГП-7Б</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p108835273-protivogaz.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>ТОО "Профессионал"</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз ГП-7 б</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p95523706-protivogaz.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>ТОО "ТД Лидер"</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз гражданский ГП-7Б</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p46277578-protivogaz-grazhdanskij.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Safety Vendors Group</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Противогаз ГП-7Б</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>https://satu.kz/p115263663-protivogaz.html</t>
+          <t>15.02.2026</t>
         </is>
       </c>
     </row>
